--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/falcon.fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/falcon.fm.bill.process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C1868-643E-EC42-A788-3795523EB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413450B2-528E-224F-8935-89778D13DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60400" yWindow="-1340" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>active</t>
   </si>
@@ -147,6 +147,13 @@
   </si>
   <si>
     <t>结算管理</t>
+  </si>
+  <si>
+    <t>69a02ab1-2b15-4e73-b874-7eba697a709b</t>
+  </si>
+  <si>
+    <t>根据订单读账本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -688,7 +695,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -781,6 +788,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="C14" s="4"/>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/falcon.fm.bill.process.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/falcon.fm.bill.process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413450B2-528E-224F-8935-89778D13DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E5A3A-B23F-B147-A315-9A39ACF22A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60400" yWindow="-1340" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="66380" yWindow="-3280" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>active</t>
   </si>
@@ -154,6 +154,13 @@
   <si>
     <t>根据订单读账本</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款/付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51541af0-7541-4abb-8208-0425ecc1dee8</t>
   </si>
 </sst>
 </file>
@@ -692,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -799,114 +806,125 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-      <c r="K14" s="4"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="3"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K18" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
